--- a/testData/ContentsTestData.xlsx
+++ b/testData/ContentsTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Techie\OneDrive\Desktop\GW-Automation\New folder\New folder\Website-Learners\API_automation\GravitywriteAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D5247-4574-4805-90CB-F061F26C254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF824133-5E76-45CB-A2CD-2ED556D6E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="1740" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34416" yWindow="5544" windowWidth="23040" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -238,516 +238,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="9" tint="0.39991454817346722"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="9" tint="0.39991454817346722"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="9" tint="0.39991454817346722"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1030,7 +520,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.3828125" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1262,7 +752,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1296,28 +786,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H9">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
-      <formula>200</formula>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
+      <formula>500</formula>
+      <formula>599</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
+      <formula>400</formula>
+      <formula>499</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="between">
       <formula>200</formula>
       <formula>299</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
-      <formula>400</formula>
-      <formula>499</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="between">
-      <formula>500</formula>
-      <formula>599</formula>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
